--- a/biology/Botanique/Pisonia/Pisonia.xlsx
+++ b/biology/Botanique/Pisonia/Pisonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pisonia est un genre de plantes de la famille des Nyctaginaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Pisonia sont des plantes ligneuses : des arbres et des arbustes, parfois des lianes. Les parties de la plante sont principalement velues et certaines espèces ont des épines.
 Les feuilles opposées aux feuilles disposées en alternance sont divisées en pétiole et en limbe. Le limbe est simple.
 Les espèces de Pisonia sont généralement dioïques. Les inflorescences présentes sur ou près de l'inflorescence contiennent de nombreuses fleurs. Les fleurs principalement unisexuées, parfois hermaphrodites, ont un symétrie radiale et sont par cinq. Les fleurs mâles contiennent six à dix étamines.
-Les graines de certaines espèces de Pisonia sont recouvertes de mucus visqueux et de petits crochets. Elles sont supposées être une adaptation de certaines espèces insulaires qui assurent la dispersion des graines entre les îles en s'attachant aux oiseaux et permettent également d'enrichir les sables coralliens. Chez des espèces de Pisonia, cependant, il arrive que de nombreuses graines s'attachent à un oiseau, ce qui peut rendre l'oiseau incapable de voler. S'il ne peut plus se libérer des graines, il meurt de faim ou devient une proie facile pour les chasseurs. Jusqu'à présent, il n'est pas clair pourquoi certaines espèces de Pisonia se sont développées dans cette direction, ce qui provoque la mort des oiseaux. Des études récentes ont émis l'hypothèse que la mort de l'oiseau constituerait une technique de propagation de l'arbre pour favoriser l'apport d'engrais nécessaire au jeune plant via la décomposition de la carcasse de l'animal[1].
+Les graines de certaines espèces de Pisonia sont recouvertes de mucus visqueux et de petits crochets. Elles sont supposées être une adaptation de certaines espèces insulaires qui assurent la dispersion des graines entre les îles en s'attachant aux oiseaux et permettent également d'enrichir les sables coralliens. Chez des espèces de Pisonia, cependant, il arrive que de nombreuses graines s'attachent à un oiseau, ce qui peut rendre l'oiseau incapable de voler. S'il ne peut plus se libérer des graines, il meurt de faim ou devient une proie facile pour les chasseurs. Jusqu'à présent, il n'est pas clair pourquoi certaines espèces de Pisonia se sont développées dans cette direction, ce qui provoque la mort des oiseaux. Des études récentes ont émis l'hypothèse que la mort de l'oiseau constituerait une technique de propagation de l'arbre pour favoriser l'apport d'engrais nécessaire au jeune plant via la décomposition de la carcasse de l'animal.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La répartition est pantropicale[1]. Dans certaines îles du Pacifique, les Pisonia sont des espèces végétales dominantes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répartition est pantropicale. Dans certaines îles du Pacifique, les Pisonia sont des espèces végétales dominantes.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pisonia aculeata
 Pisonia acuminata
